--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735A8C0F-0F1E-4B17-B5BE-660DA73F7D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79643CD-E5C0-4E5B-ACFE-3A1B3F09B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FF1D62B-E63C-4D4F-9DA0-64DF04CC7BF2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9D38B8D-DF16-4238-B0DA-BED26C46FF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,7 +127,7 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>76,94%</t>
+    <t>76,81%</t>
   </si>
   <si>
     <t>93,58%</t>
@@ -139,25 +139,25 @@
     <t>6,42%</t>
   </si>
   <si>
-    <t>23,06%</t>
+    <t>23,19%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -184,19 +184,19 @@
     <t>97,49%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -208,7 +208,7 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,97%</t>
+    <t>95,52%</t>
   </si>
   <si>
     <t>99,57%</t>
@@ -220,7 +220,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>4,48%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
@@ -229,61 +229,61 @@
     <t>94,81%</t>
   </si>
   <si>
-    <t>77,72%</t>
+    <t>78,05%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>22,28%</t>
+    <t>21,95%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>94,68%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,32%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64D2BCF-1C7B-4A0E-8906-7C4F3739AD3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3093DEA-AEC9-4E5C-BD1B-FC98FD969C6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB934CA-8AE7-47E2-B4FF-8A1F31BF7B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7DEE7-ABCA-4CCE-98AC-F0346AFC0DA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE558C51-6D64-4031-AC45-2887282D3617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBE3CC-DB75-4672-BFB4-D634259CABDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79643CD-E5C0-4E5B-ACFE-3A1B3F09B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{355F925E-8CED-4A2B-9247-A4223746803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C9D38B8D-DF16-4238-B0DA-BED26C46FF5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20D51A38-A326-4160-98DD-D985397C9460}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,10 +79,10 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,163 +127,163 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,43%</t>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>8,41%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2012 (Tasa respuesta: 3,24%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Porcentaje de anticonceptivos recetados en 2015 (Tasa respuesta: 2,31%)</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3093DEA-AEC9-4E5C-BD1B-FC98FD969C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A86592F-4166-42EF-8616-CF7D056D27DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7DEE7-ABCA-4CCE-98AC-F0346AFC0DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF730D7C-87F9-4222-AC70-9BF65836ED4E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBE3CC-DB75-4672-BFB4-D634259CABDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A95EC2D-3EF0-44FF-B1FB-0CB0383CC922}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B18-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{355F925E-8CED-4A2B-9247-A4223746803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC8AF47-EB93-4C3D-8346-C8BDD5D03284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20D51A38-A326-4160-98DD-D985397C9460}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F2AE2B7-460C-4D28-B99A-2E1EFAB5D70D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -79,10 +79,10 @@
     <t>82,96%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,10 +91,10 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -127,37 +127,37 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -184,19 +184,19 @@
     <t>97,49%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -208,19 +208,19 @@
     <t>98,26%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>Porcentaje de anticonceptivos recetados en 2016 (Tasa respuesta: 2,31%)</t>
@@ -229,61 +229,61 @@
     <t>94,81%</t>
   </si>
   <si>
-    <t>76,39%</t>
+    <t>77,72%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>23,61%</t>
+    <t>22,28%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>94,74%</t>
+    <t>94,34%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,66%</t>
   </si>
   <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A86592F-4166-42EF-8616-CF7D056D27DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0951059D-0F81-40C2-9DC0-6347A14AEAAE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF730D7C-87F9-4222-AC70-9BF65836ED4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D953D5-E9E6-468A-BCA3-C3527FFF0B5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A95EC2D-3EF0-44FF-B1FB-0CB0383CC922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDEF867-310C-436E-86DD-8A1FA09463BB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
